--- a/sequences_processing/ITS2_CLC/bi_phylum_ITS2.xlsx
+++ b/sequences_processing/ITS2_CLC/bi_phylum_ITS2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">Samples</t>
   </si>
@@ -21,6 +21,12 @@
   </si>
   <si>
     <t xml:space="preserve">SIMPSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chao1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACE</t>
   </si>
   <si>
     <t xml:space="preserve">B_2_1</t>
@@ -491,10 +497,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>0.694413292555653</v>
@@ -502,10 +514,16 @@
       <c r="C2" t="n">
         <v>0.477401063095149</v>
       </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>0.654978628630011</v>
@@ -513,10 +531,16 @@
       <c r="C3" t="n">
         <v>0.425175067069075</v>
       </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
         <v>0.591150495066125</v>
@@ -524,10 +548,16 @@
       <c r="C4" t="n">
         <v>0.383875974054952</v>
       </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
         <v>0.645379767676074</v>
@@ -535,10 +565,16 @@
       <c r="C5" t="n">
         <v>0.405530420981626</v>
       </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
         <v>0.661042025098825</v>
@@ -546,10 +582,16 @@
       <c r="C6" t="n">
         <v>0.449976159590508</v>
       </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
         <v>0.607333737730493</v>
@@ -557,10 +599,16 @@
       <c r="C7" t="n">
         <v>0.404851529150471</v>
       </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
         <v>0.518939066818043</v>
@@ -568,10 +616,16 @@
       <c r="C8" t="n">
         <v>0.324291232599297</v>
       </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
         <v>0.590236291202592</v>
@@ -579,10 +633,16 @@
       <c r="C9" t="n">
         <v>0.389015550799399</v>
       </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
         <v>0.570647670236095</v>
@@ -590,10 +650,16 @@
       <c r="C10" t="n">
         <v>0.373677368056916</v>
       </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
         <v>0.601803540396687</v>
@@ -601,10 +667,16 @@
       <c r="C11" t="n">
         <v>0.38350178924492</v>
       </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
         <v>0.556537522917414</v>
@@ -612,10 +684,16 @@
       <c r="C12" t="n">
         <v>0.348292020087573</v>
       </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
         <v>0.673070863606609</v>
@@ -623,10 +701,16 @@
       <c r="C13" t="n">
         <v>0.446100075514034</v>
       </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
         <v>0.640359591735623</v>
@@ -634,10 +718,16 @@
       <c r="C14" t="n">
         <v>0.431334081093012</v>
       </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
         <v>0.580633145821</v>
@@ -645,10 +735,16 @@
       <c r="C15" t="n">
         <v>0.378914079738539</v>
       </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n">
         <v>0.67554610540787</v>
@@ -656,10 +752,16 @@
       <c r="C16" t="n">
         <v>0.462188461264419</v>
       </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5.66666666666667</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n">
         <v>0.500319651360807</v>
@@ -667,10 +769,16 @@
       <c r="C17" t="n">
         <v>0.289593785802231</v>
       </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n">
         <v>0.502953943582274</v>
@@ -678,10 +786,16 @@
       <c r="C18" t="n">
         <v>0.309372651847571</v>
       </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n">
         <v>0.671327647834738</v>
@@ -689,10 +803,16 @@
       <c r="C19" t="n">
         <v>0.446571064562182</v>
       </c>
+      <c r="D19" t="n">
+        <v>6</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6.375</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n">
         <v>0.544038096518032</v>
@@ -700,10 +820,16 @@
       <c r="C20" t="n">
         <v>0.320511441421103</v>
       </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n">
         <v>0.62733696985223</v>
@@ -711,10 +837,16 @@
       <c r="C21" t="n">
         <v>0.406433105685478</v>
       </c>
+      <c r="D21" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n">
         <v>0.588804792770573</v>
@@ -722,10 +854,16 @@
       <c r="C22" t="n">
         <v>0.363576758480727</v>
       </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n">
         <v>0.622484165517452</v>
@@ -733,10 +871,16 @@
       <c r="C23" t="n">
         <v>0.412832500852788</v>
       </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n">
         <v>0.694474953362856</v>
@@ -744,10 +888,16 @@
       <c r="C24" t="n">
         <v>0.438073256867256</v>
       </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n">
         <v>0.56196358667865</v>
@@ -755,10 +905,16 @@
       <c r="C25" t="n">
         <v>0.352652260096991</v>
       </c>
+      <c r="D25" t="n">
+        <v>6</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n">
         <v>0.718140474058344</v>
@@ -766,10 +922,16 @@
       <c r="C26" t="n">
         <v>0.4846602048923</v>
       </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n">
         <v>0.620946965895427</v>
@@ -777,10 +939,16 @@
       <c r="C27" t="n">
         <v>0.391655515751213</v>
       </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n">
         <v>0.600633228653303</v>
@@ -788,10 +956,16 @@
       <c r="C28" t="n">
         <v>0.394969928124633</v>
       </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n">
         <v>0.51624370367416</v>
@@ -799,10 +973,16 @@
       <c r="C29" t="n">
         <v>0.322256115401435</v>
       </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n">
         <v>0.493861866547148</v>
@@ -810,10 +990,16 @@
       <c r="C30" t="n">
         <v>0.303894335604315</v>
       </c>
+      <c r="D30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6.75</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n">
         <v>0.714911716760903</v>
@@ -821,10 +1007,16 @@
       <c r="C31" t="n">
         <v>0.474080994832921</v>
       </c>
+      <c r="D31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7.75</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n">
         <v>0.686002968903893</v>
@@ -832,10 +1024,16 @@
       <c r="C32" t="n">
         <v>0.471356254437512</v>
       </c>
+      <c r="D32" t="n">
+        <v>7</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6.75</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n">
         <v>0.555975546964781</v>
@@ -843,10 +1041,16 @@
       <c r="C33" t="n">
         <v>0.349916566912972</v>
       </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n">
         <v>0.599532805675539</v>
@@ -854,10 +1058,16 @@
       <c r="C34" t="n">
         <v>0.374562265963214</v>
       </c>
+      <c r="D34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n">
         <v>0.563626939158974</v>
@@ -865,10 +1075,16 @@
       <c r="C35" t="n">
         <v>0.366848578668835</v>
       </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n">
         <v>0.465602638751197</v>
@@ -876,10 +1092,16 @@
       <c r="C36" t="n">
         <v>0.283521956983451</v>
       </c>
+      <c r="D36" t="n">
+        <v>4</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n">
         <v>0.500100892256388</v>
@@ -887,10 +1109,16 @@
       <c r="C37" t="n">
         <v>0.30563744974396</v>
       </c>
+      <c r="D37" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n">
         <v>0.553997749390058</v>
@@ -898,10 +1126,16 @@
       <c r="C38" t="n">
         <v>0.361407327741569</v>
       </c>
+      <c r="D38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n">
         <v>0.493917747265209</v>
@@ -909,10 +1143,16 @@
       <c r="C39" t="n">
         <v>0.28996829013674</v>
       </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n">
         <v>0.488174289003135</v>
@@ -920,10 +1160,16 @@
       <c r="C40" t="n">
         <v>0.292673430342496</v>
       </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n">
         <v>0.489558185473434</v>
@@ -931,10 +1177,16 @@
       <c r="C41" t="n">
         <v>0.301174219460341</v>
       </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n">
         <v>0.472201697206476</v>
@@ -942,10 +1194,16 @@
       <c r="C42" t="n">
         <v>0.285259003549787</v>
       </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5.66666666666667</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n">
         <v>0.621959600102033</v>
@@ -953,16 +1211,28 @@
       <c r="C43" t="n">
         <v>0.37597182760228</v>
       </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5.66666666666667</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n">
         <v>0.426263448942226</v>
       </c>
       <c r="C44" t="n">
         <v>0.252171707703352</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
